--- a/SCH-STH/Impact assessments/Tanzania/2024/tz_sch_sth_impact_202405_1_school.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/2024/tz_sch_sth_impact_202405_1_school.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F3F345-B2AF-4FAC-B787-8090DA4D3B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53D1BD6-A195-4C90-8036-48796A47C491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2042,10 +2042,10 @@
     <t>Mtazamaji: Ni vifaa gani vya kunawia mikono vinapatikana angalau mita 3 kutoka kwenye vyoo?</t>
   </si>
   <si>
-    <t>(2024 Jan) - 1. SCH/STH – School/Location V4.1</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_1_school_v4_1</t>
+    <t>tz_sch_sth_impact_2405_1_school</t>
+  </si>
+  <si>
+    <t>(2024 May) - 1. SCH/STH – School/Location</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2325,9 +2325,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2349,7 +2346,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2781,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
@@ -2865,10 +2862,10 @@
       <c r="D2" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>400</v>
       </c>
       <c r="G2" s="25"/>
@@ -2878,7 +2875,7 @@
       <c r="I2" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>407</v>
       </c>
       <c r="K2" s="25"/>
@@ -2900,21 +2897,20 @@
         <v>356</v>
       </c>
       <c r="D3" s="27"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="35"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="25"/>
-      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -2927,14 +2923,14 @@
         <v>385</v>
       </c>
       <c r="D4" s="27"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="30"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="35"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25" t="s">
@@ -2956,14 +2952,14 @@
         <v>386</v>
       </c>
       <c r="D5" s="27"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>608</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="30"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="35"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25" t="s">
@@ -2985,21 +2981,21 @@
         <v>357</v>
       </c>
       <c r="D6" s="27"/>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="35"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="25"/>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="30" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3014,21 +3010,21 @@
         <v>387</v>
       </c>
       <c r="D7" s="27"/>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="25"/>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="30" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3045,16 +3041,16 @@
       <c r="D8" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>406</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25" t="s">
@@ -3074,14 +3070,14 @@
         <v>609</v>
       </c>
       <c r="D9" s="27"/>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="34"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25" t="s">
@@ -3101,14 +3097,14 @@
         <v>611</v>
       </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>602</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="25" t="s">
         <v>621</v>
       </c>
@@ -3132,10 +3128,10 @@
       <c r="D11" s="27" t="s">
         <v>613</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>603</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="34" t="s">
         <v>614</v>
       </c>
       <c r="G11" s="25"/>
@@ -3145,7 +3141,7 @@
       <c r="I11" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="34" t="s">
         <v>596</v>
       </c>
       <c r="K11" s="25" t="s">
@@ -3171,16 +3167,16 @@
       <c r="D12" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="34" t="s">
         <v>410</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="34"/>
       <c r="K12" s="25" t="s">
         <v>621</v>
       </c>
@@ -3204,16 +3200,16 @@
       <c r="D13" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="34" t="s">
         <v>410</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="25" t="s">
         <v>621</v>
       </c>
@@ -3237,16 +3233,16 @@
       <c r="D14" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>410</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="35"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="25" t="s">
         <v>621</v>
       </c>
@@ -3270,10 +3266,10 @@
       <c r="D15" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="34" t="s">
         <v>418</v>
       </c>
       <c r="G15" s="25"/>
@@ -3283,7 +3279,7 @@
       <c r="I15" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="34" t="s">
         <v>420</v>
       </c>
       <c r="K15" s="25" t="s">
@@ -3309,10 +3305,10 @@
       <c r="D16" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>418</v>
       </c>
       <c r="G16" s="25"/>
@@ -3322,7 +3318,7 @@
       <c r="I16" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="34" t="s">
         <v>424</v>
       </c>
       <c r="K16" s="25" t="s">
@@ -3348,10 +3344,10 @@
       <c r="D17" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="34" t="s">
         <v>418</v>
       </c>
       <c r="G17" s="25"/>
@@ -3361,7 +3357,7 @@
       <c r="I17" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="34" t="s">
         <v>428</v>
       </c>
       <c r="K17" s="25" t="s">
@@ -3385,14 +3381,14 @@
         <v>623</v>
       </c>
       <c r="D18" s="27"/>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>622</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="35"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="25" t="s">
         <v>621</v>
       </c>
@@ -3414,14 +3410,14 @@
         <v>432</v>
       </c>
       <c r="D19" s="27"/>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="25" t="s">
         <v>621</v>
       </c>
@@ -3445,16 +3441,16 @@
       <c r="D20" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="34" t="s">
         <v>438</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="34"/>
       <c r="K20" s="25" t="s">
         <v>629</v>
       </c>
@@ -3478,16 +3474,16 @@
       <c r="D21" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="34" t="s">
         <v>635</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="34" t="s">
         <v>636</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="25" t="s">
         <v>621</v>
       </c>
@@ -3509,14 +3505,14 @@
         <v>442</v>
       </c>
       <c r="D22" s="27"/>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="25" t="s">
         <v>621</v>
       </c>
@@ -3540,14 +3536,14 @@
       <c r="D23" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="F23" s="35"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="25" t="s">
         <v>630</v>
       </c>
@@ -3571,16 +3567,16 @@
       <c r="D24" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="64" t="s">
         <v>646</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="34" t="s">
         <v>636</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="35"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="25" t="s">
         <v>621</v>
       </c>
@@ -3604,16 +3600,16 @@
       <c r="D25" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="34" t="s">
         <v>458</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="34"/>
       <c r="K25" s="25" t="s">
         <v>621</v>
       </c>
@@ -3631,31 +3627,31 @@
       <c r="B26" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="36"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="25" t="s">
         <v>641</v>
       </c>
-      <c r="L26" s="33"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
     </row>
     <row r="27" spans="1:15" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
@@ -3664,31 +3660,31 @@
       <c r="B27" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="36"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="L27" s="33"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
     </row>
     <row r="28" spans="1:15" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
@@ -3697,27 +3693,27 @@
       <c r="B28" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="36" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="36"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
     </row>
     <row r="29" spans="1:15" s="28" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
@@ -3732,16 +3728,16 @@
       <c r="D29" s="27" t="s">
         <v>605</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="34" t="s">
         <v>472</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="35"/>
+      <c r="J29" s="34"/>
       <c r="K29" s="25" t="s">
         <v>633</v>
       </c>
@@ -3763,14 +3759,14 @@
         <v>359</v>
       </c>
       <c r="D30" s="27"/>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="35"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="35"/>
+      <c r="J30" s="34"/>
       <c r="K30" s="25" t="s">
         <v>632</v>
       </c>
@@ -3788,31 +3784,31 @@
       <c r="B31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="31" t="s">
         <v>360</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="34" t="s">
         <v>617</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="34" t="s">
         <v>618</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="36"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="L31" s="33"/>
+      <c r="L31" s="32"/>
       <c r="M31" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
     </row>
     <row r="32" spans="1:15" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
@@ -3821,31 +3817,31 @@
       <c r="B32" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="31" t="s">
         <v>361</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="64" t="s">
         <v>647</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="36"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="L32" s="33"/>
+      <c r="L32" s="32"/>
       <c r="M32" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
     </row>
     <row r="33" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
@@ -3854,23 +3850,23 @@
       <c r="B33" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="36" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="37"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="36"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="33"/>
+      <c r="L33" s="32"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
     </row>
     <row r="34" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -3879,19 +3875,19 @@
       <c r="B34" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="37"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="36"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="33"/>
+      <c r="L34" s="32"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
     </row>
     <row r="35" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
@@ -3900,19 +3896,19 @@
       <c r="B35" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="37"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="36"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="33"/>
+      <c r="L35" s="32"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3925,7 +3921,7 @@
   <dimension ref="A1:H565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -3942,28 +3938,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3977,7 +3973,7 @@
       <c r="C2" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>473</v>
       </c>
       <c r="E2" s="5"/>
@@ -3994,7 +3990,7 @@
       <c r="C3" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>474</v>
       </c>
       <c r="E3" s="5"/>
@@ -4011,7 +4007,7 @@
       <c r="C4" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>473</v>
       </c>
       <c r="E4" s="5"/>
@@ -4028,7 +4024,7 @@
       <c r="C5" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>474</v>
       </c>
       <c r="E5" s="5"/>
@@ -4045,7 +4041,7 @@
       <c r="C6" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>475</v>
       </c>
       <c r="E6" s="5"/>
@@ -4056,22 +4052,22 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="42"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>479</v>
       </c>
       <c r="E8" s="5"/>
@@ -4079,16 +4075,16 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>482</v>
       </c>
       <c r="E9" s="5"/>
@@ -4096,16 +4092,16 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>643</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>642</v>
       </c>
       <c r="E10" s="5"/>
@@ -4113,16 +4109,16 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>484</v>
       </c>
       <c r="E11" s="5"/>
@@ -4130,166 +4126,166 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="45" t="s">
         <v>475</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>487</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>487</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>491</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>492</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>493</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="45" t="s">
         <v>498</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>499</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -4307,7 +4303,7 @@
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="41" t="s">
         <v>501</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -4324,7 +4320,7 @@
       <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41" t="s">
         <v>502</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -4341,7 +4337,7 @@
       <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="41" t="s">
         <v>504</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -4358,7 +4354,7 @@
       <c r="B25" s="4">
         <v>4</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>506</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -4375,7 +4371,7 @@
       <c r="B26" s="4">
         <v>5</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>508</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -4392,7 +4388,7 @@
       <c r="B27" s="4">
         <v>6</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>510</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -4409,7 +4405,7 @@
       <c r="B28" s="4">
         <v>7</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="41" t="s">
         <v>512</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -4426,7 +4422,7 @@
       <c r="B29" s="4">
         <v>8</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>514</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -4443,7 +4439,7 @@
       <c r="B30" s="4">
         <v>9</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="41" t="s">
         <v>337</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -4460,7 +4456,7 @@
       <c r="B31" s="4">
         <v>10</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="41" t="s">
         <v>517</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -4477,7 +4473,7 @@
       <c r="B32" s="4">
         <v>11</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="41" t="s">
         <v>519</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -4494,7 +4490,7 @@
       <c r="B33" s="4">
         <v>12</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="41" t="s">
         <v>521</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -4511,7 +4507,7 @@
       <c r="B34" s="4">
         <v>13</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="41" t="s">
         <v>523</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -4528,7 +4524,7 @@
       <c r="B35" s="4">
         <v>14</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="55" t="s">
         <v>627</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -4542,7 +4538,7 @@
       <c r="B36" s="4">
         <v>66</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="41" t="s">
         <v>525</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -4559,7 +4555,7 @@
       <c r="B37" s="4">
         <v>88</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="41" t="s">
         <v>628</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -4572,283 +4568,283 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="42"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+    <row r="39" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B39" s="57">
+      <c r="B39" s="56">
         <v>1</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="65" t="s">
         <v>501</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="61" t="s">
         <v>625</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-    </row>
-    <row r="40" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+    </row>
+    <row r="40" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B40" s="57">
+      <c r="B40" s="56">
         <v>2</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="65" t="s">
         <v>502</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="61" t="s">
         <v>503</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-    </row>
-    <row r="41" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+    </row>
+    <row r="41" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B41" s="57">
+      <c r="B41" s="56">
         <v>3</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="65" t="s">
         <v>504</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="61" t="s">
         <v>505</v>
       </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-    </row>
-    <row r="42" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+    </row>
+    <row r="42" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B42" s="57">
+      <c r="B42" s="56">
         <v>4</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-    </row>
-    <row r="43" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+    </row>
+    <row r="43" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B43" s="57">
+      <c r="B43" s="56">
         <v>5</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="65" t="s">
         <v>508</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="D43" s="61" t="s">
         <v>509</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-    </row>
-    <row r="44" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+    </row>
+    <row r="44" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B44" s="57">
+      <c r="B44" s="56">
         <v>6</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="65" t="s">
         <v>510</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="61" t="s">
         <v>511</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-    </row>
-    <row r="45" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+    </row>
+    <row r="45" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B45" s="57">
+      <c r="B45" s="56">
         <v>7</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="65" t="s">
         <v>512</v>
       </c>
-      <c r="D45" s="62" t="s">
+      <c r="D45" s="61" t="s">
         <v>513</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-    </row>
-    <row r="46" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+    </row>
+    <row r="46" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B46" s="57">
+      <c r="B46" s="56">
         <v>8</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="65" t="s">
         <v>514</v>
       </c>
-      <c r="D46" s="62" t="s">
+      <c r="D46" s="61" t="s">
         <v>515</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-    </row>
-    <row r="47" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+    </row>
+    <row r="47" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B47" s="56">
         <v>9</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="61" t="s">
         <v>516</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-    </row>
-    <row r="48" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
+      <c r="E47" s="56"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+    </row>
+    <row r="48" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B48" s="57">
+      <c r="B48" s="56">
         <v>10</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="65" t="s">
         <v>517</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="61" t="s">
         <v>518</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-    </row>
-    <row r="49" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+    </row>
+    <row r="49" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B49" s="57">
+      <c r="B49" s="56">
         <v>11</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="65" t="s">
         <v>519</v>
       </c>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="61" t="s">
         <v>520</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-    </row>
-    <row r="50" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
+      <c r="E49" s="56"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+    </row>
+    <row r="50" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B50" s="57">
+      <c r="B50" s="56">
         <v>12</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="65" t="s">
         <v>521</v>
       </c>
-      <c r="D50" s="62" t="s">
+      <c r="D50" s="61" t="s">
         <v>522</v>
       </c>
-      <c r="E50" s="57"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-    </row>
-    <row r="51" spans="1:7" s="59" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="E50" s="56"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+    </row>
+    <row r="51" spans="1:7" s="58" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B51" s="57">
+      <c r="B51" s="56">
         <v>13</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="65" t="s">
         <v>523</v>
       </c>
-      <c r="D51" s="62" t="s">
+      <c r="D51" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-    </row>
-    <row r="52" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+    </row>
+    <row r="52" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B52" s="57">
+      <c r="B52" s="56">
         <v>14</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="63" t="s">
         <v>627</v>
       </c>
-      <c r="D52" s="64" t="s">
+      <c r="D52" s="63" t="s">
         <v>626</v>
       </c>
-      <c r="E52" s="57"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-    </row>
-    <row r="53" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+    </row>
+    <row r="53" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B53" s="57">
+      <c r="B53" s="56">
         <v>66</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="65" t="s">
         <v>525</v>
       </c>
-      <c r="D53" s="62" t="s">
+      <c r="D53" s="61" t="s">
         <v>526</v>
       </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-    </row>
-    <row r="54" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+    </row>
+    <row r="54" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B54" s="57">
+      <c r="B54" s="56">
         <v>88</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="65" t="s">
         <v>628</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="61" t="s">
         <v>527</v>
       </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -4869,233 +4865,233 @@
       <c r="C56" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="41" t="s">
         <v>529</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
+    <row r="57" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-    </row>
-    <row r="58" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50" t="s">
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+    </row>
+    <row r="58" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="50" t="s">
         <v>531</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-    </row>
-    <row r="59" spans="1:7" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
+      <c r="E58" s="51"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+    </row>
+    <row r="59" spans="1:7" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-    </row>
-    <row r="60" spans="1:7" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+      <c r="E59" s="44"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+    </row>
+    <row r="60" spans="1:7" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-    </row>
-    <row r="61" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="E60" s="44"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+    </row>
+    <row r="61" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="43" t="s">
         <v>540</v>
       </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-    </row>
-    <row r="62" spans="1:7" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
+      <c r="E61" s="44"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+    </row>
+    <row r="62" spans="1:7" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C62" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="43" t="s">
         <v>543</v>
       </c>
-      <c r="E62" s="45"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-    </row>
-    <row r="63" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
+      <c r="E62" s="44"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+    </row>
+    <row r="63" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="43" t="s">
         <v>546</v>
       </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-    </row>
-    <row r="64" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
+      <c r="E63" s="44"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+    </row>
+    <row r="64" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="45" t="s">
         <v>547</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="43" t="s">
         <v>549</v>
       </c>
-      <c r="E64" s="45"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-    </row>
-    <row r="65" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44" t="s">
+      <c r="E64" s="44"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+    </row>
+    <row r="65" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="45" t="s">
         <v>550</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="E65" s="45"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-    </row>
-    <row r="66" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44" t="s">
+      <c r="E65" s="44"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+    </row>
+    <row r="66" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="45" t="s">
         <v>553</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="D66" s="44" t="s">
+      <c r="D66" s="43" t="s">
         <v>555</v>
       </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-    </row>
-    <row r="67" spans="1:7" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="44" t="s">
+      <c r="E66" s="44"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+    </row>
+    <row r="67" spans="1:7" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="45" t="s">
         <v>556</v>
       </c>
-      <c r="C67" s="45" t="s">
+      <c r="C67" s="44" t="s">
         <v>557</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="43" t="s">
         <v>558</v>
       </c>
-      <c r="E67" s="45"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-    </row>
-    <row r="68" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44" t="s">
+      <c r="E67" s="44"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+    </row>
+    <row r="68" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="45" t="s">
         <v>606</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="E68" s="45"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-    </row>
-    <row r="69" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44" t="s">
+      <c r="E68" s="44"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+    </row>
+    <row r="69" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="D69" s="44" t="s">
+      <c r="D69" s="43" t="s">
         <v>561</v>
       </c>
-      <c r="E69" s="45"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -5110,13 +5106,13 @@
       <c r="A71" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="41" t="s">
         <v>637</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="D71" s="62" t="s">
+      <c r="D71" s="61" t="s">
         <v>562</v>
       </c>
       <c r="E71" s="5"/>
@@ -5127,13 +5123,13 @@
       <c r="A72" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="41" t="s">
         <v>638</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="59" t="s">
         <v>389</v>
       </c>
-      <c r="D72" s="62" t="s">
+      <c r="D72" s="61" t="s">
         <v>563</v>
       </c>
       <c r="E72" s="5"/>
@@ -5144,13 +5140,13 @@
       <c r="A73" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="41" t="s">
         <v>639</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="60" t="s">
         <v>645</v>
       </c>
-      <c r="D73" s="63" t="s">
+      <c r="D73" s="62" t="s">
         <v>645</v>
       </c>
       <c r="E73" s="5"/>
@@ -5195,13 +5191,13 @@
       <c r="A76" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="41" t="s">
         <v>639</v>
       </c>
-      <c r="C76" s="61" t="s">
+      <c r="C76" s="60" t="s">
         <v>645</v>
       </c>
-      <c r="D76" s="63" t="s">
+      <c r="D76" s="62" t="s">
         <v>645</v>
       </c>
       <c r="E76" s="5"/>
@@ -5235,7 +5231,7 @@
       <c r="C78" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D78" s="54" t="s">
         <v>566</v>
       </c>
       <c r="E78" s="5"/>
@@ -5252,7 +5248,7 @@
       <c r="C79" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D79" s="55" t="s">
+      <c r="D79" s="54" t="s">
         <v>567</v>
       </c>
       <c r="E79" s="5"/>
@@ -5269,7 +5265,7 @@
       <c r="C80" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D80" s="42" t="s">
+      <c r="D80" s="41" t="s">
         <v>568</v>
       </c>
       <c r="E80" s="5"/>
@@ -5286,7 +5282,7 @@
       <c r="C81" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="41" t="s">
         <v>569</v>
       </c>
       <c r="E81" s="5"/>
@@ -5320,7 +5316,7 @@
       <c r="C83" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D83" s="42" t="s">
+      <c r="D83" s="41" t="s">
         <v>571</v>
       </c>
       <c r="E83" s="5"/>
@@ -5337,7 +5333,7 @@
       <c r="C84" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="41" t="s">
         <v>572</v>
       </c>
       <c r="E84" s="5"/>
@@ -5457,7 +5453,7 @@
       <c r="C92" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="D92" s="64" t="s">
+      <c r="D92" s="63" t="s">
         <v>644</v>
       </c>
       <c r="E92" s="7"/>
@@ -5606,8 +5602,8 @@
       <c r="E103" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F103" s="38"/>
-      <c r="G103" s="40"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="39"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
@@ -5625,8 +5621,8 @@
       <c r="E104" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F104" s="38"/>
-      <c r="G104" s="40"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="39"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
@@ -5644,8 +5640,8 @@
       <c r="E105" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F105" s="38"/>
-      <c r="G105" s="40"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="39"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -5663,8 +5659,8 @@
       <c r="E106" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F106" s="38"/>
-      <c r="G106" s="40"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="39"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -5682,8 +5678,8 @@
       <c r="E107" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F107" s="38"/>
-      <c r="G107" s="40"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="39"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
@@ -5701,8 +5697,8 @@
       <c r="E108" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F108" s="38"/>
-      <c r="G108" s="40"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="39"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
@@ -5720,8 +5716,8 @@
       <c r="E109" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F109" s="38"/>
-      <c r="G109" s="40"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="39"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
@@ -5739,8 +5735,8 @@
       <c r="E110" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F110" s="38"/>
-      <c r="G110" s="40"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="39"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
@@ -5758,8 +5754,8 @@
       <c r="E111" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F111" s="38"/>
-      <c r="G111" s="40"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="39"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
@@ -5777,8 +5773,8 @@
       <c r="E112" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F112" s="38"/>
-      <c r="G112" s="40"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="39"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -5786,8 +5782,8 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="40"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="39"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
@@ -5806,7 +5802,7 @@
       <c r="F114" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G114" s="40"/>
+      <c r="G114" s="39"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
@@ -5825,7 +5821,7 @@
       <c r="F115" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G115" s="40"/>
+      <c r="G115" s="39"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
@@ -5844,7 +5840,7 @@
       <c r="F116" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G116" s="40"/>
+      <c r="G116" s="39"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
@@ -5863,7 +5859,7 @@
       <c r="F117" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G117" s="40"/>
+      <c r="G117" s="39"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
@@ -5882,7 +5878,7 @@
       <c r="F118" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G118" s="40"/>
+      <c r="G118" s="39"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
@@ -5901,7 +5897,7 @@
       <c r="F119" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G119" s="40"/>
+      <c r="G119" s="39"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -5920,7 +5916,7 @@
       <c r="F120" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G120" s="40"/>
+      <c r="G120" s="39"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
@@ -5939,7 +5935,7 @@
       <c r="F121" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G121" s="40"/>
+      <c r="G121" s="39"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
@@ -5958,7 +5954,7 @@
       <c r="F122" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G122" s="40"/>
+      <c r="G122" s="39"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
@@ -5977,7 +5973,7 @@
       <c r="F123" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G123" s="40"/>
+      <c r="G123" s="39"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -13930,8 +13926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13953,12 +13949,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>648</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>649</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>395</v>
@@ -16536,10 +16532,10 @@
       <c r="C71" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="33" t="s">
         <v>367</v>
       </c>
       <c r="F71" s="19">
@@ -16764,10 +16760,10 @@
       <c r="O77" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="Q77" s="34" t="s">
+      <c r="Q77" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="R77" s="34" t="s">
+      <c r="R77" s="33" t="s">
         <v>367</v>
       </c>
     </row>

--- a/SCH-STH/Impact assessments/Tanzania/2024/tz_sch_sth_impact_202405_1_school.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/2024/tz_sch_sth_impact_202405_1_school.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53D1BD6-A195-4C90-8036-48796A47C491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CFD182-35FC-49C3-B337-0962B930C7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="649">
   <si>
     <t>type</t>
   </si>
@@ -1017,9 +1017,6 @@
   </si>
   <si>
     <t>Iringa Dc</t>
-  </si>
-  <si>
-    <t>Mpanda Dc</t>
   </si>
   <si>
     <t>Ruangwa Dc</t>
@@ -1838,9 +1835,6 @@
     <t>Iringa DC</t>
   </si>
   <si>
-    <t>Mpanda DC</t>
-  </si>
-  <si>
     <t>Ruangwa DC</t>
   </si>
   <si>
@@ -2042,10 +2036,13 @@
     <t>Mtazamaji: Ni vifaa gani vya kunawia mikono vinapatikana angalau mita 3 kutoka kwenye vyoo?</t>
   </si>
   <si>
-    <t>tz_sch_sth_impact_2405_1_school</t>
-  </si>
-  <si>
-    <t>(2024 May) - 1. SCH/STH – School/Location</t>
+    <t>Tanganyika Dc</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_2405_1_school_v2</t>
+  </si>
+  <si>
+    <t>(2024 May) - 1. SCH/STH – School/Location V2</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2816,10 +2813,10 @@
         <v>49</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>396</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>397</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>2</v>
@@ -2831,7 +2828,7 @@
         <v>50</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>4</v>
@@ -2851,32 +2848,32 @@
     </row>
     <row r="2" spans="1:15" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>399</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>400</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>365</v>
-      </c>
       <c r="J2" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
@@ -2894,11 +2891,11 @@
         <v>46</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="25"/>
@@ -2920,11 +2917,11 @@
         <v>12</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="25"/>
@@ -2943,17 +2940,17 @@
     </row>
     <row r="5" spans="1:15" s="28" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="34" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="25"/>
@@ -2972,17 +2969,17 @@
     </row>
     <row r="6" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="25"/>
@@ -2996,22 +2993,22 @@
       </c>
       <c r="N6" s="25"/>
       <c r="O6" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>383</v>
-      </c>
       <c r="C7" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="25"/>
@@ -3025,7 +3022,7 @@
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3036,16 +3033,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E8" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>405</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>406</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -3061,17 +3058,17 @@
     </row>
     <row r="9" spans="1:15" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="34" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="25"/>
@@ -3091,14 +3088,14 @@
         <v>24</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="34" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="25"/>
@@ -3106,7 +3103,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="34"/>
       <c r="K10" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L10" s="25"/>
       <c r="M10" s="25" t="s">
@@ -3120,32 +3117,32 @@
         <v>24</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C11" s="27" t="s">
+        <v>610</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>612</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>614</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L11" s="25"/>
       <c r="M11" s="25" t="s">
@@ -3156,29 +3153,29 @@
     </row>
     <row r="12" spans="1:15" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C12" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="E12" s="34" t="s">
+      <c r="F12" s="34" t="s">
         <v>409</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>410</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="27"/>
       <c r="J12" s="34"/>
       <c r="K12" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25" t="s">
@@ -3189,29 +3186,29 @@
     </row>
     <row r="13" spans="1:15" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C13" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>412</v>
-      </c>
       <c r="F13" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="27"/>
       <c r="J13" s="34"/>
       <c r="K13" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25" t="s">
@@ -3222,29 +3219,29 @@
     </row>
     <row r="14" spans="1:15" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C14" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>414</v>
-      </c>
       <c r="F14" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="27"/>
       <c r="J14" s="34"/>
       <c r="K14" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25" t="s">
@@ -3255,35 +3252,35 @@
     </row>
     <row r="15" spans="1:15" s="28" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C15" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="E15" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="F15" s="34" t="s">
         <v>417</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>418</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I15" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="J15" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="J15" s="34" t="s">
-        <v>420</v>
-      </c>
       <c r="K15" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25" t="s">
@@ -3294,35 +3291,35 @@
     </row>
     <row r="16" spans="1:15" s="28" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C16" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>422</v>
-      </c>
       <c r="F16" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I16" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="J16" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="J16" s="34" t="s">
-        <v>424</v>
-      </c>
       <c r="K16" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25" t="s">
@@ -3333,35 +3330,35 @@
     </row>
     <row r="17" spans="1:15" s="28" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C17" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>426</v>
-      </c>
       <c r="F17" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I17" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="J17" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="J17" s="34" t="s">
-        <v>428</v>
-      </c>
       <c r="K17" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25" t="s">
@@ -3372,17 +3369,17 @@
     </row>
     <row r="18" spans="1:15" s="28" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>430</v>
-      </c>
       <c r="C18" s="27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="34" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="25"/>
@@ -3390,7 +3387,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="34"/>
       <c r="K18" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25" t="s">
@@ -3401,17 +3398,17 @@
     </row>
     <row r="19" spans="1:15" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>431</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>432</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="25"/>
@@ -3419,7 +3416,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="34"/>
       <c r="K19" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25" t="s">
@@ -3433,26 +3430,26 @@
         <v>24</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>437</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>438</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="27"/>
       <c r="J20" s="34"/>
       <c r="K20" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25" t="s">
@@ -3463,29 +3460,29 @@
     </row>
     <row r="21" spans="1:15" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>440</v>
-      </c>
       <c r="E21" s="34" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="27"/>
       <c r="J21" s="34"/>
       <c r="K21" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25" t="s">
@@ -3496,17 +3493,17 @@
     </row>
     <row r="22" spans="1:15" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B22" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>441</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>442</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="25"/>
@@ -3514,7 +3511,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="34"/>
       <c r="K22" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25" t="s">
@@ -3528,16 +3525,16 @@
         <v>24</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="D23" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>445</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>446</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="25"/>
@@ -3545,7 +3542,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="34"/>
       <c r="K23" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25" t="s">
@@ -3556,29 +3553,29 @@
     </row>
     <row r="24" spans="1:15" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>449</v>
-      </c>
       <c r="D24" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="27"/>
       <c r="J24" s="34"/>
       <c r="K24" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25" t="s">
@@ -3595,23 +3592,23 @@
         <v>17</v>
       </c>
       <c r="C25" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="E25" s="34" t="s">
+      <c r="F25" s="34" t="s">
         <v>457</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>458</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="27"/>
       <c r="J25" s="34"/>
       <c r="K25" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25" t="s">
@@ -3622,29 +3619,29 @@
     </row>
     <row r="26" spans="1:15" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="C26" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="D26" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="E26" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="F26" s="35" t="s">
         <v>462</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>640</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>463</v>
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="31"/>
       <c r="J26" s="35"/>
       <c r="K26" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L26" s="32"/>
       <c r="M26" s="25" t="s">
@@ -3658,26 +3655,26 @@
         <v>24</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="D27" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>466</v>
-      </c>
       <c r="F27" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="31"/>
       <c r="J27" s="35"/>
       <c r="K27" s="25" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="25" t="s">
@@ -3688,17 +3685,17 @@
     </row>
     <row r="28" spans="1:15" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="32"/>
@@ -3706,7 +3703,7 @@
       <c r="I28" s="31"/>
       <c r="J28" s="35"/>
       <c r="K28" s="25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L28" s="32"/>
       <c r="M28" s="25" t="s">
@@ -3720,26 +3717,26 @@
         <v>24</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="D29" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="E29" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="E29" s="34" t="s">
+      <c r="F29" s="34" t="s">
         <v>471</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>472</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="27"/>
       <c r="J29" s="34"/>
       <c r="K29" s="25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="25" t="s">
@@ -3756,11 +3753,11 @@
         <v>20</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="25"/>
@@ -3768,7 +3765,7 @@
       <c r="I30" s="27"/>
       <c r="J30" s="34"/>
       <c r="K30" s="25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25" t="s">
@@ -3785,23 +3782,23 @@
         <v>21</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="31"/>
       <c r="J31" s="35"/>
       <c r="K31" s="25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L31" s="32"/>
       <c r="M31" s="25" t="s">
@@ -3818,23 +3815,23 @@
         <v>23</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="31"/>
       <c r="J32" s="35"/>
       <c r="K32" s="25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L32" s="32"/>
       <c r="M32" s="25" t="s">
@@ -3851,11 +3848,11 @@
         <v>25</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="35" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="32"/>
@@ -3921,8 +3918,8 @@
   <dimension ref="A1:H565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3948,7 +3945,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>44</v>
@@ -3960,7 +3957,7 @@
         <v>32</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3968,13 +3965,13 @@
         <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
@@ -3985,13 +3982,13 @@
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
@@ -4002,13 +3999,13 @@
         <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
@@ -4019,13 +4016,13 @@
         <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -4036,13 +4033,13 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -4059,16 +4056,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>478</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>479</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -4076,16 +4073,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>480</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>481</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>482</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -4093,16 +4090,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -4110,16 +4107,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B11" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>483</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>483</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>484</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -4127,16 +4124,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>485</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>486</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="46"/>
@@ -4145,16 +4142,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="46"/>
@@ -4163,16 +4160,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>487</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>488</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="46"/>
@@ -4181,16 +4178,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B15" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>489</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>490</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="46"/>
@@ -4199,16 +4196,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B16" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>491</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>491</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>492</v>
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="46"/>
@@ -4217,16 +4214,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>492</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>493</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>493</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>494</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="46"/>
@@ -4235,16 +4232,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B18" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>495</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>496</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="46"/>
@@ -4253,16 +4250,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B19" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="D19" s="45" t="s">
         <v>497</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>498</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="46"/>
@@ -4271,16 +4268,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B20" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>499</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>499</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>500</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="46"/>
@@ -4304,10 +4301,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6"/>
@@ -4321,10 +4318,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="6"/>
@@ -4338,10 +4335,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>505</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
@@ -4355,10 +4352,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
@@ -4372,10 +4369,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
@@ -4389,10 +4386,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
@@ -4406,10 +4403,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>513</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="6"/>
@@ -4423,10 +4420,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="6"/>
@@ -4440,10 +4437,10 @@
         <v>9</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="6"/>
@@ -4457,10 +4454,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
@@ -4474,10 +4471,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="6"/>
@@ -4491,10 +4488,10 @@
         <v>12</v>
       </c>
       <c r="C33" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
@@ -4508,10 +4505,10 @@
         <v>13</v>
       </c>
       <c r="C34" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
@@ -4525,10 +4522,10 @@
         <v>14</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4539,10 +4536,10 @@
         <v>66</v>
       </c>
       <c r="C36" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="6"/>
@@ -4556,10 +4553,10 @@
         <v>88</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="6"/>
@@ -4576,16 +4573,16 @@
     </row>
     <row r="39" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B39" s="56">
         <v>1</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="57"/>
@@ -4593,16 +4590,16 @@
     </row>
     <row r="40" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B40" s="56">
         <v>2</v>
       </c>
       <c r="C40" s="65" t="s">
+        <v>501</v>
+      </c>
+      <c r="D40" s="61" t="s">
         <v>502</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>503</v>
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="57"/>
@@ -4610,16 +4607,16 @@
     </row>
     <row r="41" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B41" s="56">
         <v>3</v>
       </c>
       <c r="C41" s="65" t="s">
+        <v>503</v>
+      </c>
+      <c r="D41" s="61" t="s">
         <v>504</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>505</v>
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="57"/>
@@ -4627,16 +4624,16 @@
     </row>
     <row r="42" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B42" s="56">
         <v>4</v>
       </c>
       <c r="C42" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="D42" s="61" t="s">
         <v>506</v>
-      </c>
-      <c r="D42" s="61" t="s">
-        <v>507</v>
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="57"/>
@@ -4644,16 +4641,16 @@
     </row>
     <row r="43" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B43" s="56">
         <v>5</v>
       </c>
       <c r="C43" s="65" t="s">
+        <v>507</v>
+      </c>
+      <c r="D43" s="61" t="s">
         <v>508</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>509</v>
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="57"/>
@@ -4661,16 +4658,16 @@
     </row>
     <row r="44" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B44" s="56">
         <v>6</v>
       </c>
       <c r="C44" s="65" t="s">
+        <v>509</v>
+      </c>
+      <c r="D44" s="61" t="s">
         <v>510</v>
-      </c>
-      <c r="D44" s="61" t="s">
-        <v>511</v>
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="57"/>
@@ -4678,16 +4675,16 @@
     </row>
     <row r="45" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B45" s="56">
         <v>7</v>
       </c>
       <c r="C45" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="D45" s="61" t="s">
         <v>512</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>513</v>
       </c>
       <c r="E45" s="56"/>
       <c r="F45" s="57"/>
@@ -4695,16 +4692,16 @@
     </row>
     <row r="46" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B46" s="56">
         <v>8</v>
       </c>
       <c r="C46" s="65" t="s">
+        <v>513</v>
+      </c>
+      <c r="D46" s="61" t="s">
         <v>514</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>515</v>
       </c>
       <c r="E46" s="56"/>
       <c r="F46" s="57"/>
@@ -4712,16 +4709,16 @@
     </row>
     <row r="47" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B47" s="56">
         <v>9</v>
       </c>
       <c r="C47" s="65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E47" s="56"/>
       <c r="F47" s="57"/>
@@ -4729,16 +4726,16 @@
     </row>
     <row r="48" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B48" s="56">
         <v>10</v>
       </c>
       <c r="C48" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="D48" s="61" t="s">
         <v>517</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>518</v>
       </c>
       <c r="E48" s="56"/>
       <c r="F48" s="57"/>
@@ -4746,16 +4743,16 @@
     </row>
     <row r="49" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B49" s="56">
         <v>11</v>
       </c>
       <c r="C49" s="65" t="s">
+        <v>518</v>
+      </c>
+      <c r="D49" s="61" t="s">
         <v>519</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>520</v>
       </c>
       <c r="E49" s="56"/>
       <c r="F49" s="57"/>
@@ -4763,16 +4760,16 @@
     </row>
     <row r="50" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B50" s="56">
         <v>12</v>
       </c>
       <c r="C50" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="D50" s="61" t="s">
         <v>521</v>
-      </c>
-      <c r="D50" s="61" t="s">
-        <v>522</v>
       </c>
       <c r="E50" s="56"/>
       <c r="F50" s="57"/>
@@ -4780,16 +4777,16 @@
     </row>
     <row r="51" spans="1:7" s="58" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B51" s="56">
         <v>13</v>
       </c>
       <c r="C51" s="65" t="s">
+        <v>522</v>
+      </c>
+      <c r="D51" s="61" t="s">
         <v>523</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>524</v>
       </c>
       <c r="E51" s="56"/>
       <c r="F51" s="57"/>
@@ -4797,16 +4794,16 @@
     </row>
     <row r="52" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B52" s="56">
         <v>14</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D52" s="63" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E52" s="56"/>
       <c r="F52" s="57"/>
@@ -4814,16 +4811,16 @@
     </row>
     <row r="53" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B53" s="56">
         <v>66</v>
       </c>
       <c r="C53" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="D53" s="61" t="s">
         <v>525</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>526</v>
       </c>
       <c r="E53" s="56"/>
       <c r="F53" s="57"/>
@@ -4831,16 +4828,16 @@
     </row>
     <row r="54" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B54" s="56">
         <v>88</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E54" s="56"/>
       <c r="F54" s="57"/>
@@ -4860,13 +4857,13 @@
         <v>36</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
@@ -4877,13 +4874,13 @@
         <v>36</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E57" s="51"/>
       <c r="F57" s="52"/>
@@ -4894,13 +4891,13 @@
         <v>36</v>
       </c>
       <c r="B58" s="49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E58" s="51"/>
       <c r="F58" s="52"/>
@@ -4911,13 +4908,13 @@
         <v>36</v>
       </c>
       <c r="B59" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="C59" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="D59" s="43" t="s">
         <v>533</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>534</v>
       </c>
       <c r="E59" s="44"/>
       <c r="F59" s="46"/>
@@ -4928,13 +4925,13 @@
         <v>36</v>
       </c>
       <c r="B60" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="C60" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="D60" s="43" t="s">
         <v>536</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>537</v>
       </c>
       <c r="E60" s="44"/>
       <c r="F60" s="46"/>
@@ -4945,13 +4942,13 @@
         <v>36</v>
       </c>
       <c r="B61" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="C61" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="D61" s="43" t="s">
         <v>539</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>540</v>
       </c>
       <c r="E61" s="44"/>
       <c r="F61" s="46"/>
@@ -4962,13 +4959,13 @@
         <v>36</v>
       </c>
       <c r="B62" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="C62" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="D62" s="43" t="s">
         <v>542</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>543</v>
       </c>
       <c r="E62" s="44"/>
       <c r="F62" s="46"/>
@@ -4979,13 +4976,13 @@
         <v>36</v>
       </c>
       <c r="B63" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="C63" s="44" t="s">
         <v>544</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="D63" s="43" t="s">
         <v>545</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>546</v>
       </c>
       <c r="E63" s="44"/>
       <c r="F63" s="46"/>
@@ -4996,13 +4993,13 @@
         <v>36</v>
       </c>
       <c r="B64" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="C64" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="D64" s="43" t="s">
         <v>548</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>549</v>
       </c>
       <c r="E64" s="44"/>
       <c r="F64" s="46"/>
@@ -5013,13 +5010,13 @@
         <v>36</v>
       </c>
       <c r="B65" s="45" t="s">
+        <v>549</v>
+      </c>
+      <c r="C65" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="D65" s="43" t="s">
         <v>551</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>552</v>
       </c>
       <c r="E65" s="44"/>
       <c r="F65" s="46"/>
@@ -5030,13 +5027,13 @@
         <v>36</v>
       </c>
       <c r="B66" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="C66" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="D66" s="43" t="s">
         <v>554</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>555</v>
       </c>
       <c r="E66" s="44"/>
       <c r="F66" s="46"/>
@@ -5047,13 +5044,13 @@
         <v>36</v>
       </c>
       <c r="B67" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="C67" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="C67" s="44" t="s">
+      <c r="D67" s="43" t="s">
         <v>557</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>558</v>
       </c>
       <c r="E67" s="44"/>
       <c r="F67" s="46"/>
@@ -5064,13 +5061,13 @@
         <v>36</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E68" s="44"/>
       <c r="F68" s="46"/>
@@ -5081,13 +5078,13 @@
         <v>36</v>
       </c>
       <c r="B69" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="C69" s="44" t="s">
         <v>559</v>
       </c>
-      <c r="C69" s="44" t="s">
+      <c r="D69" s="43" t="s">
         <v>560</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>561</v>
       </c>
       <c r="E69" s="44"/>
       <c r="F69" s="46"/>
@@ -5107,13 +5104,13 @@
         <v>37</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C71" s="59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D71" s="61" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6"/>
@@ -5124,13 +5121,13 @@
         <v>37</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C72" s="59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="6"/>
@@ -5141,13 +5138,13 @@
         <v>37</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C73" s="60" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D73" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
@@ -5155,16 +5152,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="6"/>
@@ -5172,16 +5169,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="6"/>
@@ -5189,16 +5186,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D76" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="6"/>
@@ -5209,13 +5206,13 @@
         <v>38</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
@@ -5226,13 +5223,13 @@
         <v>38</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D78" s="54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
@@ -5243,13 +5240,13 @@
         <v>38</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D79" s="54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
@@ -5260,13 +5257,13 @@
         <v>39</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
@@ -5277,13 +5274,13 @@
         <v>39</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
@@ -5294,13 +5291,13 @@
         <v>39</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="6"/>
@@ -5311,13 +5308,13 @@
         <v>39</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="6"/>
@@ -5328,13 +5325,13 @@
         <v>39</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
@@ -5345,13 +5342,13 @@
         <v>40</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
@@ -5362,13 +5359,13 @@
         <v>40</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
@@ -5379,13 +5376,13 @@
         <v>40</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
@@ -5396,13 +5393,13 @@
         <v>40</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="6"/>
@@ -5413,13 +5410,13 @@
         <v>40</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E89" s="7"/>
       <c r="G89" s="6"/>
@@ -5430,31 +5427,31 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>595</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="C92" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D92" s="63" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E92" s="7"/>
     </row>
@@ -5597,7 +5594,7 @@
         <v>326</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>196</v>
@@ -5610,13 +5607,13 @@
         <v>31</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>222</v>
@@ -5629,13 +5626,13 @@
         <v>31</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>248</v>
@@ -5654,7 +5651,7 @@
         <v>85</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>57</v>
@@ -5673,7 +5670,7 @@
         <v>325</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>57</v>
@@ -5686,13 +5683,13 @@
         <v>31</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>272</v>
@@ -5705,13 +5702,13 @@
         <v>31</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>298</v>
@@ -5730,7 +5727,7 @@
         <v>113</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>112</v>
@@ -5749,7 +5746,7 @@
         <v>141</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>140</v>
@@ -5768,7 +5765,7 @@
         <v>170</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>140</v>
@@ -5809,13 +5806,13 @@
         <v>32</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="16" t="s">
@@ -6113,13 +6110,13 @@
         <v>32</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="16" t="s">
@@ -6370,7 +6367,7 @@
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G144" s="9"/>
     </row>
@@ -6389,7 +6386,7 @@
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G145" s="9"/>
     </row>
@@ -6408,7 +6405,7 @@
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G146" s="9"/>
     </row>
@@ -6427,7 +6424,7 @@
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G147" s="9"/>
     </row>
@@ -6446,7 +6443,7 @@
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G148" s="9"/>
     </row>
@@ -6465,7 +6462,7 @@
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G149" s="9"/>
     </row>
@@ -6484,7 +6481,7 @@
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G150" s="9"/>
     </row>
@@ -6503,7 +6500,7 @@
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G151" s="9"/>
     </row>
@@ -6522,7 +6519,7 @@
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G152" s="9"/>
     </row>
@@ -6541,7 +6538,7 @@
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G153" s="9"/>
     </row>
@@ -6560,7 +6557,7 @@
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G154" s="9"/>
     </row>
@@ -6579,7 +6576,7 @@
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G155" s="9"/>
     </row>
@@ -6598,7 +6595,7 @@
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G156" s="9"/>
     </row>
@@ -6617,7 +6614,7 @@
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G157" s="9"/>
     </row>
@@ -6636,7 +6633,7 @@
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G158" s="9"/>
     </row>
@@ -7495,7 +7492,7 @@
       </c>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>32</v>
       </c>
@@ -7510,11 +7507,11 @@
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>32</v>
       </c>
@@ -7529,11 +7526,11 @@
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>32</v>
       </c>
@@ -7548,11 +7545,11 @@
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>32</v>
       </c>
@@ -7567,11 +7564,11 @@
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>32</v>
       </c>
@@ -7586,11 +7583,11 @@
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>32</v>
       </c>
@@ -7605,11 +7602,11 @@
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>32</v>
       </c>
@@ -7624,11 +7621,11 @@
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G210" s="9"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>32</v>
       </c>
@@ -7643,11 +7640,11 @@
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G211" s="9"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>32</v>
       </c>
@@ -7662,11 +7659,11 @@
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G212" s="9"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>32</v>
       </c>
@@ -7681,11 +7678,11 @@
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G213" s="9"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>32</v>
       </c>
@@ -7700,11 +7697,11 @@
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G214" s="9"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>32</v>
       </c>
@@ -7719,11 +7716,11 @@
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G215" s="9"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>32</v>
       </c>
@@ -7738,11 +7735,11 @@
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G216" s="9"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>32</v>
       </c>
@@ -7757,11 +7754,11 @@
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>32</v>
       </c>
@@ -7776,7 +7773,7 @@
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="16" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="G218" s="9"/>
     </row>
@@ -7795,7 +7792,7 @@
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G219" s="9"/>
     </row>
@@ -7814,7 +7811,7 @@
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G220" s="9"/>
     </row>
@@ -7833,7 +7830,7 @@
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G221" s="9"/>
     </row>
@@ -7852,7 +7849,7 @@
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G222" s="9"/>
     </row>
@@ -7871,7 +7868,7 @@
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G223" s="9"/>
     </row>
@@ -7890,7 +7887,7 @@
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G224" s="9"/>
     </row>
@@ -7909,7 +7906,7 @@
       </c>
       <c r="E225" s="1"/>
       <c r="F225" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G225" s="9"/>
     </row>
@@ -7928,7 +7925,7 @@
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G226" s="9"/>
     </row>
@@ -7947,7 +7944,7 @@
       </c>
       <c r="E227" s="1"/>
       <c r="F227" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G227" s="9"/>
     </row>
@@ -7966,7 +7963,7 @@
       </c>
       <c r="E228" s="1"/>
       <c r="F228" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G228" s="9"/>
     </row>
@@ -7985,7 +7982,7 @@
       </c>
       <c r="E229" s="1"/>
       <c r="F229" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G229" s="9"/>
     </row>
@@ -8004,7 +8001,7 @@
       </c>
       <c r="E230" s="1"/>
       <c r="F230" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G230" s="9"/>
     </row>
@@ -8023,7 +8020,7 @@
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G231" s="9"/>
     </row>
@@ -8042,7 +8039,7 @@
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G232" s="9"/>
     </row>
@@ -8061,7 +8058,7 @@
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G233" s="9"/>
     </row>
@@ -8080,7 +8077,7 @@
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G234" s="9"/>
     </row>
@@ -8099,7 +8096,7 @@
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G235" s="9"/>
     </row>
@@ -8118,7 +8115,7 @@
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G236" s="9"/>
     </row>
@@ -8137,7 +8134,7 @@
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G237" s="9"/>
     </row>
@@ -8156,7 +8153,7 @@
       </c>
       <c r="E238" s="1"/>
       <c r="F238" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G238" s="9"/>
     </row>
@@ -8175,7 +8172,7 @@
       </c>
       <c r="E239" s="1"/>
       <c r="F239" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G239" s="9"/>
     </row>
@@ -8194,7 +8191,7 @@
       </c>
       <c r="E240" s="1"/>
       <c r="F240" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G240" s="9"/>
     </row>
@@ -8213,7 +8210,7 @@
       </c>
       <c r="E241" s="1"/>
       <c r="F241" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G241" s="9"/>
     </row>
@@ -8232,7 +8229,7 @@
       </c>
       <c r="E242" s="1"/>
       <c r="F242" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G242" s="9"/>
     </row>
@@ -8251,7 +8248,7 @@
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G243" s="9"/>
     </row>
@@ -8270,7 +8267,7 @@
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G244" s="9"/>
     </row>
@@ -8289,7 +8286,7 @@
       </c>
       <c r="E245" s="1"/>
       <c r="F245" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G245" s="9"/>
     </row>
@@ -8308,7 +8305,7 @@
       </c>
       <c r="E246" s="1"/>
       <c r="F246" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G246" s="9"/>
     </row>
@@ -8327,7 +8324,7 @@
       </c>
       <c r="E247" s="1"/>
       <c r="F247" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G247" s="9"/>
     </row>
@@ -8346,7 +8343,7 @@
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G248" s="9"/>
     </row>
@@ -8645,7 +8642,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>172</v>
@@ -8663,7 +8660,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>87</v>
@@ -8681,7 +8678,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>223</v>
@@ -8699,7 +8696,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>174</v>
@@ -8717,7 +8714,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>250</v>
@@ -8735,7 +8732,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>252</v>
@@ -8753,7 +8750,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>253</v>
@@ -8771,7 +8768,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>273</v>
@@ -8789,7 +8786,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>176</v>
@@ -8807,7 +8804,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>178</v>
@@ -8825,7 +8822,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>180</v>
@@ -8843,7 +8840,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>275</v>
@@ -8861,7 +8858,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>59</v>
@@ -8879,7 +8876,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>61</v>
@@ -8897,7 +8894,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>63</v>
@@ -8915,7 +8912,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>89</v>
@@ -8933,7 +8930,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>225</v>
@@ -8951,7 +8948,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>226</v>
@@ -8969,7 +8966,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>65</v>
@@ -8987,7 +8984,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>198</v>
@@ -9005,7 +9002,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>66</v>
@@ -9023,7 +9020,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>91</v>
@@ -9041,7 +9038,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>227</v>
@@ -9059,7 +9056,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>92</v>
@@ -9077,7 +9074,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>229</v>
@@ -9095,7 +9092,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>68</v>
@@ -9113,7 +9110,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>94</v>
@@ -9131,7 +9128,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>95</v>
@@ -9149,7 +9146,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>70</v>
@@ -9167,7 +9164,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>72</v>
@@ -9185,7 +9182,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>73</v>
@@ -9203,7 +9200,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>143</v>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>231</v>
@@ -9239,25 +9236,25 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E298" s="1"/>
       <c r="G298" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>299</v>
@@ -9275,7 +9272,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>232</v>
@@ -9293,7 +9290,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>234</v>
@@ -9311,7 +9308,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>301</v>
@@ -9329,7 +9326,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>303</v>
@@ -9347,7 +9344,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>235</v>
@@ -9365,7 +9362,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>97</v>
@@ -9383,7 +9380,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>182</v>
@@ -9401,7 +9398,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>184</v>
@@ -9419,7 +9416,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>200</v>
@@ -9437,7 +9434,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>305</v>
@@ -9455,7 +9452,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>276</v>
@@ -9473,25 +9470,25 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E311" s="1"/>
       <c r="G311" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>278</v>
@@ -9509,7 +9506,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>145</v>
@@ -9527,7 +9524,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>147</v>
@@ -9545,7 +9542,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>279</v>
@@ -9563,7 +9560,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>149</v>
@@ -9581,7 +9578,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>186</v>
@@ -9599,7 +9596,7 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>151</v>
@@ -9617,7 +9614,7 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>153</v>
@@ -9635,7 +9632,7 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>155</v>
@@ -9653,7 +9650,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>157</v>
@@ -9671,7 +9668,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>159</v>
@@ -9689,7 +9686,7 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>255</v>
@@ -9707,7 +9704,7 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>257</v>
@@ -9725,7 +9722,7 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>202</v>
@@ -9743,7 +9740,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>204</v>
@@ -9761,7 +9758,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>98</v>
@@ -9779,7 +9776,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>205</v>
@@ -9797,7 +9794,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>307</v>
@@ -9815,7 +9812,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>207</v>
@@ -9833,7 +9830,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>208</v>
@@ -9851,7 +9848,7 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>114</v>
@@ -9869,7 +9866,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>258</v>
@@ -9887,7 +9884,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>100</v>
@@ -9905,7 +9902,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>210</v>
@@ -9923,7 +9920,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>309</v>
@@ -9941,7 +9938,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>311</v>
@@ -9959,7 +9956,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>259</v>
@@ -9977,7 +9974,7 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>187</v>
@@ -9995,16 +9992,16 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E340" s="1"/>
       <c r="G340" t="s">
@@ -10013,7 +10010,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>116</v>
@@ -10031,7 +10028,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>74</v>
@@ -10049,7 +10046,7 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>118</v>
@@ -10067,16 +10064,16 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E344" s="1"/>
       <c r="G344" t="s">
@@ -10085,7 +10082,7 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>261</v>
@@ -10103,7 +10100,7 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>120</v>
@@ -10121,7 +10118,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>161</v>
@@ -10139,7 +10136,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>121</v>
@@ -10157,7 +10154,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>123</v>
@@ -10175,7 +10172,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>211</v>
@@ -10193,7 +10190,7 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>102</v>
@@ -10211,16 +10208,16 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E352" s="1"/>
       <c r="G352" t="s">
@@ -10229,7 +10226,7 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>125</v>
@@ -10247,7 +10244,7 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>213</v>
@@ -10265,7 +10262,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>163</v>
@@ -10283,7 +10280,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>189</v>
@@ -10301,7 +10298,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>215</v>
@@ -10318,7 +10315,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>281</v>
@@ -10335,7 +10332,7 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>127</v>
@@ -10352,7 +10349,7 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>237</v>
@@ -10369,7 +10366,7 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>165</v>
@@ -10386,7 +10383,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>170</v>
@@ -10403,7 +10400,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>314</v>
@@ -10420,7 +10417,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>217</v>
@@ -10437,7 +10434,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>129</v>
@@ -10454,7 +10451,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>264</v>
@@ -10471,7 +10468,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>316</v>
@@ -10488,7 +10485,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>282</v>
@@ -10505,7 +10502,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>284</v>
@@ -10522,7 +10519,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>239</v>
@@ -10539,7 +10536,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>191</v>
@@ -10556,7 +10553,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>241</v>
@@ -10573,7 +10570,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>318</v>
@@ -10590,7 +10587,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>319</v>
@@ -10607,7 +10604,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>76</v>
@@ -10624,7 +10621,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>286</v>
@@ -10641,7 +10638,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>288</v>
@@ -10658,7 +10655,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>104</v>
@@ -10675,7 +10672,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>193</v>
@@ -10692,7 +10689,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>106</v>
@@ -10709,7 +10706,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>321</v>
@@ -10726,7 +10723,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>243</v>
@@ -10743,7 +10740,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>266</v>
@@ -10760,7 +10757,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>131</v>
@@ -10777,16 +10774,16 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G385" t="s">
         <v>267</v>
@@ -10794,7 +10791,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>132</v>
@@ -10811,7 +10808,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>290</v>
@@ -10828,7 +10825,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>133</v>
@@ -10845,7 +10842,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>135</v>
@@ -10862,7 +10859,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>268</v>
@@ -10879,7 +10876,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>292</v>
@@ -10896,7 +10893,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>269</v>
@@ -10913,7 +10910,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>108</v>
@@ -10930,7 +10927,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>167</v>
@@ -10947,7 +10944,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>110</v>
@@ -10964,7 +10961,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>294</v>
@@ -10981,7 +10978,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>296</v>
@@ -10998,7 +10995,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>111</v>
@@ -11015,7 +11012,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>271</v>
@@ -11032,7 +11029,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>78</v>
@@ -11049,16 +11046,16 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G401" t="s">
         <v>297</v>
@@ -11066,7 +11063,7 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>219</v>
@@ -11083,7 +11080,7 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>322</v>
@@ -11100,7 +11097,7 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>245</v>
@@ -11117,7 +11114,7 @@
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>195</v>
@@ -11134,7 +11131,7 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>169</v>
@@ -11151,7 +11148,7 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>137</v>
@@ -11168,7 +11165,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>324</v>
@@ -11185,7 +11182,7 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>80</v>
@@ -11202,7 +11199,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>247</v>
@@ -11219,7 +11216,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>139</v>
@@ -11236,7 +11233,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>221</v>
@@ -11253,7 +11250,7 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>82</v>
@@ -11270,7 +11267,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>84</v>
@@ -11287,7 +11284,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B416" s="8">
         <v>101</v>
@@ -11305,7 +11302,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B417" s="8">
         <v>102</v>
@@ -11323,7 +11320,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B418" s="8">
         <v>103</v>
@@ -11341,7 +11338,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B419" s="8">
         <v>104</v>
@@ -11359,7 +11356,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B420" s="8">
         <v>105</v>
@@ -11377,7 +11374,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B421" s="8">
         <v>106</v>
@@ -11395,7 +11392,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B422" s="8">
         <v>107</v>
@@ -11413,7 +11410,7 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B423" s="8">
         <v>108</v>
@@ -11431,7 +11428,7 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B424" s="8">
         <v>109</v>
@@ -11449,7 +11446,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B425" s="8">
         <v>110</v>
@@ -11467,7 +11464,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B426" s="8">
         <v>111</v>
@@ -11485,7 +11482,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B427" s="8">
         <v>112</v>
@@ -11503,7 +11500,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B428" s="8">
         <v>113</v>
@@ -11521,7 +11518,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B429" s="8">
         <v>114</v>
@@ -11539,7 +11536,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B430" s="8">
         <v>115</v>
@@ -11557,7 +11554,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B431" s="8">
         <v>116</v>
@@ -11575,7 +11572,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B432" s="8">
         <v>117</v>
@@ -11593,7 +11590,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B433" s="8">
         <v>118</v>
@@ -11611,7 +11608,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B434" s="8">
         <v>119</v>
@@ -11629,7 +11626,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B435" s="8">
         <v>120</v>
@@ -11647,7 +11644,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B436" s="8">
         <v>121</v>
@@ -11665,7 +11662,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B437" s="8">
         <v>122</v>
@@ -11683,7 +11680,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B438" s="8">
         <v>123</v>
@@ -11701,7 +11698,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B439" s="8">
         <v>124</v>
@@ -11719,7 +11716,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B440" s="8">
         <v>125</v>
@@ -11737,7 +11734,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B441" s="8">
         <v>126</v>
@@ -11755,7 +11752,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B442" s="8">
         <v>127</v>
@@ -11773,7 +11770,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B443" s="8">
         <v>128</v>
@@ -11791,7 +11788,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B444" s="8">
         <v>129</v>
@@ -11809,7 +11806,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B445" s="8">
         <v>130</v>
@@ -11827,7 +11824,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B446" s="8">
         <v>131</v>
@@ -11845,7 +11842,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B447" s="8">
         <v>132</v>
@@ -11863,7 +11860,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B448" s="8">
         <v>133</v>
@@ -11881,7 +11878,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B449" s="8">
         <v>134</v>
@@ -11899,7 +11896,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B450" s="8">
         <v>135</v>
@@ -11917,7 +11914,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B451" s="8">
         <v>136</v>
@@ -11935,7 +11932,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B452" s="8">
         <v>137</v>
@@ -11953,7 +11950,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B453" s="8">
         <v>138</v>
@@ -11971,7 +11968,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B454" s="8">
         <v>139</v>
@@ -11989,7 +11986,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B455" s="8">
         <v>140</v>
@@ -12007,7 +12004,7 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B456" s="8">
         <v>141</v>
@@ -12025,7 +12022,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B457" s="8">
         <v>142</v>
@@ -12043,7 +12040,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B458" s="8">
         <v>143</v>
@@ -12061,7 +12058,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B459" s="8">
         <v>144</v>
@@ -12079,7 +12076,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B460" s="8">
         <v>145</v>
@@ -12097,7 +12094,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B461" s="8">
         <v>146</v>
@@ -12115,7 +12112,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B462" s="8">
         <v>147</v>
@@ -12128,12 +12125,12 @@
       </c>
       <c r="E462" s="8"/>
       <c r="H462" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B463" s="8">
         <v>148</v>
@@ -12151,7 +12148,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B464" s="8">
         <v>149</v>
@@ -12169,7 +12166,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B465" s="8">
         <v>150</v>
@@ -12187,7 +12184,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B466" s="8">
         <v>151</v>
@@ -12205,7 +12202,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B467" s="8">
         <v>152</v>
@@ -12223,7 +12220,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B468" s="8">
         <v>153</v>
@@ -12241,7 +12238,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B469" s="8">
         <v>154</v>
@@ -12259,7 +12256,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B470" s="8">
         <v>155</v>
@@ -12277,7 +12274,7 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B471" s="8">
         <v>156</v>
@@ -12295,7 +12292,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B472" s="8">
         <v>157</v>
@@ -12313,7 +12310,7 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B473" s="8">
         <v>158</v>
@@ -12331,7 +12328,7 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B474" s="8">
         <v>159</v>
@@ -12349,7 +12346,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B475" s="8">
         <v>160</v>
@@ -12367,7 +12364,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B476" s="8">
         <v>161</v>
@@ -12385,7 +12382,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B477" s="8">
         <v>162</v>
@@ -12403,7 +12400,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B478" s="8">
         <v>163</v>
@@ -12421,7 +12418,7 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B479" s="8">
         <v>164</v>
@@ -12439,7 +12436,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B480" s="8">
         <v>165</v>
@@ -12457,7 +12454,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B481" s="8">
         <v>166</v>
@@ -12475,7 +12472,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B482" s="8">
         <v>167</v>
@@ -12493,7 +12490,7 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B483" s="8">
         <v>168</v>
@@ -12511,7 +12508,7 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B484" s="8">
         <v>169</v>
@@ -12529,7 +12526,7 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B485" s="8">
         <v>170</v>
@@ -12542,12 +12539,12 @@
       </c>
       <c r="E485" s="8"/>
       <c r="H485" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B486" s="8">
         <v>171</v>
@@ -12565,7 +12562,7 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B487" s="8">
         <v>172</v>
@@ -12583,7 +12580,7 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B488" s="8">
         <v>173</v>
@@ -12601,7 +12598,7 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B489" s="8">
         <v>174</v>
@@ -12619,7 +12616,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B490" s="8">
         <v>175</v>
@@ -12637,7 +12634,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B491" s="8">
         <v>176</v>
@@ -12655,7 +12652,7 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B492" s="8">
         <v>177</v>
@@ -12673,7 +12670,7 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B493" s="8">
         <v>178</v>
@@ -12686,12 +12683,12 @@
       </c>
       <c r="E493" s="8"/>
       <c r="H493" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B494" s="8">
         <v>179</v>
@@ -12709,7 +12706,7 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B495" s="8">
         <v>180</v>
@@ -12727,7 +12724,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B496" s="8">
         <v>181</v>
@@ -12745,7 +12742,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B497" s="2">
         <v>182</v>
@@ -12762,7 +12759,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B498" s="2">
         <v>183</v>
@@ -12779,7 +12776,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B499" s="2">
         <v>184</v>
@@ -12796,7 +12793,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B500" s="2">
         <v>185</v>
@@ -12813,7 +12810,7 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B501" s="2">
         <v>186</v>
@@ -12830,7 +12827,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B502" s="2">
         <v>187</v>
@@ -12847,7 +12844,7 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B503" s="2">
         <v>188</v>
@@ -12864,7 +12861,7 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B504" s="2">
         <v>189</v>
@@ -12881,7 +12878,7 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B505" s="2">
         <v>190</v>
@@ -12898,7 +12895,7 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B506" s="2">
         <v>191</v>
@@ -12915,7 +12912,7 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B507" s="2">
         <v>192</v>
@@ -12932,7 +12929,7 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B508" s="2">
         <v>193</v>
@@ -12949,7 +12946,7 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B509" s="2">
         <v>194</v>
@@ -12966,7 +12963,7 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B510" s="2">
         <v>195</v>
@@ -12983,7 +12980,7 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B511" s="2">
         <v>196</v>
@@ -13000,7 +12997,7 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B512" s="2">
         <v>197</v>
@@ -13017,7 +13014,7 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B513" s="2">
         <v>198</v>
@@ -13034,7 +13031,7 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B514" s="2">
         <v>199</v>
@@ -13051,7 +13048,7 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B515" s="2">
         <v>200</v>
@@ -13068,7 +13065,7 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B516" s="2">
         <v>201</v>
@@ -13085,7 +13082,7 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B517" s="2">
         <v>202</v>
@@ -13102,7 +13099,7 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B518" s="2">
         <v>203</v>
@@ -13119,7 +13116,7 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B519" s="2">
         <v>204</v>
@@ -13136,7 +13133,7 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B520" s="2">
         <v>205</v>
@@ -13153,7 +13150,7 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B521" s="2">
         <v>206</v>
@@ -13170,7 +13167,7 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B522" s="2">
         <v>207</v>
@@ -13187,7 +13184,7 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B523" s="2">
         <v>208</v>
@@ -13204,7 +13201,7 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B524" s="2">
         <v>209</v>
@@ -13221,7 +13218,7 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B525" s="2">
         <v>210</v>
@@ -13238,7 +13235,7 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B526" s="2">
         <v>211</v>
@@ -13255,7 +13252,7 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B527" s="2">
         <v>212</v>
@@ -13272,7 +13269,7 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B528" s="2">
         <v>213</v>
@@ -13289,7 +13286,7 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B529" s="2">
         <v>214</v>
@@ -13301,12 +13298,12 @@
         <v>214</v>
       </c>
       <c r="H529" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B530" s="2">
         <v>215</v>
@@ -13323,7 +13320,7 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B531" s="2">
         <v>216</v>
@@ -13340,7 +13337,7 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B532" s="2">
         <v>217</v>
@@ -13352,12 +13349,12 @@
         <v>217</v>
       </c>
       <c r="H532" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B533" s="2">
         <v>218</v>
@@ -13374,7 +13371,7 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B534" s="2">
         <v>219</v>
@@ -13391,7 +13388,7 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B535" s="2">
         <v>220</v>
@@ -13408,7 +13405,7 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B536" s="2">
         <v>221</v>
@@ -13425,7 +13422,7 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B537" s="2">
         <v>222</v>
@@ -13442,7 +13439,7 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B538" s="2">
         <v>223</v>
@@ -13459,7 +13456,7 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B539" s="2">
         <v>224</v>
@@ -13476,7 +13473,7 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B540" s="2">
         <v>225</v>
@@ -13493,7 +13490,7 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B541" s="2">
         <v>226</v>
@@ -13510,7 +13507,7 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B542" s="2">
         <v>227</v>
@@ -13527,7 +13524,7 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B543" s="2">
         <v>228</v>
@@ -13544,7 +13541,7 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B544" s="2">
         <v>229</v>
@@ -13561,7 +13558,7 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B545" s="2">
         <v>230</v>
@@ -13578,7 +13575,7 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B546" s="2">
         <v>231</v>
@@ -13595,7 +13592,7 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B547" s="2">
         <v>232</v>
@@ -13612,7 +13609,7 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B548" s="2">
         <v>233</v>
@@ -13629,7 +13626,7 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B549" s="2">
         <v>234</v>
@@ -13646,7 +13643,7 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B550" s="2">
         <v>235</v>
@@ -13658,12 +13655,12 @@
         <v>235</v>
       </c>
       <c r="H550" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B551" s="2">
         <v>236</v>
@@ -13680,7 +13677,7 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B552" s="2">
         <v>237</v>
@@ -13697,7 +13694,7 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B553" s="2">
         <v>238</v>
@@ -13714,7 +13711,7 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B554" s="2">
         <v>239</v>
@@ -13731,7 +13728,7 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B555" s="2">
         <v>240</v>
@@ -13748,7 +13745,7 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B556" s="2">
         <v>241</v>
@@ -13765,7 +13762,7 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B557" s="2">
         <v>242</v>
@@ -13782,7 +13779,7 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B558" s="2">
         <v>243</v>
@@ -13794,12 +13791,12 @@
         <v>243</v>
       </c>
       <c r="H558" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B559" s="2">
         <v>244</v>
@@ -13816,7 +13813,7 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B560" s="2">
         <v>245</v>
@@ -13833,7 +13830,7 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B561" s="2">
         <v>246</v>
@@ -13850,7 +13847,7 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B562" s="2">
         <v>247</v>
@@ -13867,7 +13864,7 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B563" s="2">
         <v>248</v>
@@ -13884,7 +13881,7 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B564" s="2">
         <v>249</v>
@@ -13901,7 +13898,7 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B565" s="2">
         <v>250</v>
@@ -13951,13 +13948,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -13970,7 +13967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E151"/>
     </sheetView>
   </sheetViews>
@@ -13999,7 +13996,7 @@
         <v>56</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>52</v>
@@ -14096,13 +14093,13 @@
         <v>222</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>141</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>86</v>
@@ -14140,7 +14137,7 @@
         <v>248</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>141</v>
@@ -14272,7 +14269,7 @@
         <v>272</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N7" s="19" t="s">
         <v>141</v>
@@ -14316,7 +14313,7 @@
         <v>298</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>141</v>
@@ -14728,7 +14725,7 @@
         <v>326</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q19" s="18" t="s">
         <v>226</v>
@@ -15180,7 +15177,7 @@
         <v>131</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O32" s="18" t="s">
         <v>299</v>
@@ -15215,7 +15212,7 @@
         <v>132</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O33" s="18" t="s">
         <v>300</v>
@@ -15250,7 +15247,7 @@
         <v>133</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O34" s="18" t="s">
         <v>302</v>
@@ -15285,16 +15282,16 @@
         <v>134</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O35" s="18" t="s">
         <v>304</v>
       </c>
       <c r="Q35" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R35" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -15320,7 +15317,7 @@
         <v>135</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O36" s="18" t="s">
         <v>306</v>
@@ -15355,7 +15352,7 @@
         <v>136</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O37" s="18" t="s">
         <v>308</v>
@@ -15390,7 +15387,7 @@
         <v>137</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O38" s="18" t="s">
         <v>310</v>
@@ -15425,7 +15422,7 @@
         <v>138</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O39" s="18" t="s">
         <v>312</v>
@@ -15460,7 +15457,7 @@
         <v>139</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O40" s="18" t="s">
         <v>313</v>
@@ -15495,7 +15492,7 @@
         <v>140</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O41" s="18" t="s">
         <v>315</v>
@@ -15530,7 +15527,7 @@
         <v>141</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O42" s="18" t="s">
         <v>317</v>
@@ -15565,7 +15562,7 @@
         <v>142</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O43" s="18" t="s">
         <v>319</v>
@@ -15600,7 +15597,7 @@
         <v>143</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O44" s="18" t="s">
         <v>320</v>
@@ -15635,7 +15632,7 @@
         <v>144</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O45" s="18" t="s">
         <v>322</v>
@@ -15670,7 +15667,7 @@
         <v>145</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O46" s="18" t="s">
         <v>323</v>
@@ -15728,10 +15725,10 @@
         <v>141</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F48" s="19">
         <v>455</v>
@@ -15746,10 +15743,10 @@
         <v>88</v>
       </c>
       <c r="Q48" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="R48" s="18" t="s">
         <v>378</v>
-      </c>
-      <c r="R48" s="18" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -16536,7 +16533,7 @@
         <v>188</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F71" s="19">
         <v>68</v>
@@ -16764,7 +16761,7 @@
         <v>188</v>
       </c>
       <c r="R77" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -16813,10 +16810,10 @@
         <v>326</v>
       </c>
       <c r="D79" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="E79" s="18" t="s">
         <v>378</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>379</v>
       </c>
       <c r="F79" s="20">
         <v>130</v>
@@ -16904,7 +16901,7 @@
         <v>312</v>
       </c>
       <c r="R81" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -17184,7 +17181,7 @@
         <v>262</v>
       </c>
       <c r="R89" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -17265,7 +17262,7 @@
         <v>222</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>223</v>
@@ -17280,7 +17277,7 @@
         <v>191</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O92" s="18" t="s">
         <v>223</v>
@@ -17300,7 +17297,7 @@
         <v>222</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>224</v>
@@ -17315,7 +17312,7 @@
         <v>192</v>
       </c>
       <c r="N93" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O93" s="18" t="s">
         <v>224</v>
@@ -17335,7 +17332,7 @@
         <v>222</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>226</v>
@@ -17350,7 +17347,7 @@
         <v>193</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O94" s="18" t="s">
         <v>226</v>
@@ -17370,7 +17367,7 @@
         <v>222</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>227</v>
@@ -17385,7 +17382,7 @@
         <v>194</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O95" s="18" t="s">
         <v>227</v>
@@ -17405,7 +17402,7 @@
         <v>222</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>228</v>
@@ -17420,7 +17417,7 @@
         <v>195</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O96" s="18" t="s">
         <v>228</v>
@@ -17440,7 +17437,7 @@
         <v>222</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>230</v>
@@ -17455,7 +17452,7 @@
         <v>196</v>
       </c>
       <c r="N97" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O97" s="18" t="s">
         <v>230</v>
@@ -17475,7 +17472,7 @@
         <v>222</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D98" s="18" t="s">
         <v>232</v>
@@ -17490,7 +17487,7 @@
         <v>197</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O98" s="18" t="s">
         <v>232</v>
@@ -17510,7 +17507,7 @@
         <v>222</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>233</v>
@@ -17525,7 +17522,7 @@
         <v>198</v>
       </c>
       <c r="N99" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O99" s="18" t="s">
         <v>233</v>
@@ -17545,7 +17542,7 @@
         <v>222</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>235</v>
@@ -17560,7 +17557,7 @@
         <v>199</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O100" s="18" t="s">
         <v>235</v>
@@ -17580,7 +17577,7 @@
         <v>222</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>236</v>
@@ -17595,7 +17592,7 @@
         <v>200</v>
       </c>
       <c r="N101" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O101" s="18" t="s">
         <v>236</v>
@@ -17615,7 +17612,7 @@
         <v>222</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>238</v>
@@ -17630,7 +17627,7 @@
         <v>201</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O102" s="18" t="s">
         <v>238</v>
@@ -17650,7 +17647,7 @@
         <v>222</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>240</v>
@@ -17665,7 +17662,7 @@
         <v>202</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O103" s="18" t="s">
         <v>240</v>
@@ -17685,7 +17682,7 @@
         <v>222</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>242</v>
@@ -17700,7 +17697,7 @@
         <v>203</v>
       </c>
       <c r="N104" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O104" s="18" t="s">
         <v>242</v>
@@ -17720,7 +17717,7 @@
         <v>222</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>244</v>
@@ -17735,7 +17732,7 @@
         <v>204</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O105" s="18" t="s">
         <v>244</v>
@@ -17755,7 +17752,7 @@
         <v>222</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>246</v>
@@ -17770,7 +17767,7 @@
         <v>205</v>
       </c>
       <c r="N106" s="19" t="s">
-        <v>327</v>
+        <v>646</v>
       </c>
       <c r="O106" s="18" t="s">
         <v>246</v>
@@ -17790,7 +17787,7 @@
         <v>248</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>249</v>
@@ -17805,7 +17802,7 @@
         <v>206</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O107" s="18" t="s">
         <v>273</v>
@@ -17825,7 +17822,7 @@
         <v>248</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>251</v>
@@ -17840,7 +17837,7 @@
         <v>207</v>
       </c>
       <c r="N108" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O108" s="18" t="s">
         <v>274</v>
@@ -17860,7 +17857,7 @@
         <v>248</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>253</v>
@@ -17875,7 +17872,7 @@
         <v>208</v>
       </c>
       <c r="N109" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O109" s="18" t="s">
         <v>276</v>
@@ -17895,7 +17892,7 @@
         <v>248</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>254</v>
@@ -17910,7 +17907,7 @@
         <v>209</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O110" s="18" t="s">
         <v>277</v>
@@ -17930,7 +17927,7 @@
         <v>248</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>256</v>
@@ -17945,7 +17942,7 @@
         <v>210</v>
       </c>
       <c r="N111" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O111" s="18" t="s">
         <v>279</v>
@@ -17965,7 +17962,7 @@
         <v>248</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>258</v>
@@ -17980,7 +17977,7 @@
         <v>211</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O112" s="18" t="s">
         <v>280</v>
@@ -18000,7 +17997,7 @@
         <v>248</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>259</v>
@@ -18015,7 +18012,7 @@
         <v>212</v>
       </c>
       <c r="N113" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O113" s="18" t="s">
         <v>282</v>
@@ -18035,7 +18032,7 @@
         <v>248</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>260</v>
@@ -18050,7 +18047,7 @@
         <v>213</v>
       </c>
       <c r="N114" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O114" s="18" t="s">
         <v>283</v>
@@ -18070,13 +18067,13 @@
         <v>248</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D115" s="18" t="s">
         <v>262</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F115" s="20">
         <v>62</v>
@@ -18085,7 +18082,7 @@
         <v>214</v>
       </c>
       <c r="N115" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O115" s="18" t="s">
         <v>285</v>
@@ -18105,7 +18102,7 @@
         <v>248</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>263</v>
@@ -18120,7 +18117,7 @@
         <v>215</v>
       </c>
       <c r="N116" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O116" s="18" t="s">
         <v>287</v>
@@ -18140,7 +18137,7 @@
         <v>248</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>265</v>
@@ -18155,7 +18152,7 @@
         <v>216</v>
       </c>
       <c r="N117" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O117" s="18" t="s">
         <v>289</v>
@@ -18175,13 +18172,13 @@
         <v>248</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F118" s="20">
         <v>81</v>
@@ -18190,7 +18187,7 @@
         <v>217</v>
       </c>
       <c r="N118" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O118" s="18" t="s">
         <v>291</v>
@@ -18210,7 +18207,7 @@
         <v>248</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>268</v>
@@ -18225,7 +18222,7 @@
         <v>218</v>
       </c>
       <c r="N119" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O119" s="18" t="s">
         <v>293</v>
@@ -18245,7 +18242,7 @@
         <v>248</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>269</v>
@@ -18260,7 +18257,7 @@
         <v>219</v>
       </c>
       <c r="N120" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O120" s="18" t="s">
         <v>295</v>
@@ -18280,7 +18277,7 @@
         <v>248</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>270</v>
@@ -18295,7 +18292,7 @@
         <v>220</v>
       </c>
       <c r="N121" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O121" s="18" t="s">
         <v>297</v>
@@ -18315,7 +18312,7 @@
         <v>272</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>273</v>
@@ -18330,7 +18327,7 @@
         <v>221</v>
       </c>
       <c r="N122" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O122" s="18" t="s">
         <v>249</v>
@@ -18339,7 +18336,7 @@
         <v>267</v>
       </c>
       <c r="R122" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -18350,7 +18347,7 @@
         <v>272</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>274</v>
@@ -18365,7 +18362,7 @@
         <v>222</v>
       </c>
       <c r="N123" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O123" s="18" t="s">
         <v>251</v>
@@ -18385,7 +18382,7 @@
         <v>272</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>276</v>
@@ -18400,7 +18397,7 @@
         <v>223</v>
       </c>
       <c r="N124" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O124" s="18" t="s">
         <v>253</v>
@@ -18420,7 +18417,7 @@
         <v>272</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>277</v>
@@ -18435,7 +18432,7 @@
         <v>224</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O125" s="18" t="s">
         <v>254</v>
@@ -18455,7 +18452,7 @@
         <v>272</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>279</v>
@@ -18470,7 +18467,7 @@
         <v>225</v>
       </c>
       <c r="N126" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O126" s="18" t="s">
         <v>256</v>
@@ -18490,7 +18487,7 @@
         <v>272</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>280</v>
@@ -18505,7 +18502,7 @@
         <v>226</v>
       </c>
       <c r="N127" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O127" s="18" t="s">
         <v>258</v>
@@ -18525,7 +18522,7 @@
         <v>272</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>282</v>
@@ -18540,7 +18537,7 @@
         <v>227</v>
       </c>
       <c r="N128" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O128" s="18" t="s">
         <v>259</v>
@@ -18560,7 +18557,7 @@
         <v>272</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>283</v>
@@ -18575,7 +18572,7 @@
         <v>228</v>
       </c>
       <c r="N129" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O129" s="18" t="s">
         <v>260</v>
@@ -18595,7 +18592,7 @@
         <v>272</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>285</v>
@@ -18610,7 +18607,7 @@
         <v>229</v>
       </c>
       <c r="N130" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O130" s="18" t="s">
         <v>262</v>
@@ -18630,7 +18627,7 @@
         <v>272</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>287</v>
@@ -18645,7 +18642,7 @@
         <v>230</v>
       </c>
       <c r="N131" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O131" s="18" t="s">
         <v>263</v>
@@ -18665,7 +18662,7 @@
         <v>272</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>289</v>
@@ -18680,7 +18677,7 @@
         <v>231</v>
       </c>
       <c r="N132" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O132" s="18" t="s">
         <v>265</v>
@@ -18700,7 +18697,7 @@
         <v>272</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>291</v>
@@ -18715,7 +18712,7 @@
         <v>232</v>
       </c>
       <c r="N133" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O133" s="18" t="s">
         <v>267</v>
@@ -18735,7 +18732,7 @@
         <v>272</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>293</v>
@@ -18750,7 +18747,7 @@
         <v>233</v>
       </c>
       <c r="N134" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O134" s="18" t="s">
         <v>268</v>
@@ -18770,7 +18767,7 @@
         <v>272</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>295</v>
@@ -18785,7 +18782,7 @@
         <v>234</v>
       </c>
       <c r="N135" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O135" s="18" t="s">
         <v>269</v>
@@ -18805,13 +18802,13 @@
         <v>272</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F136" s="20">
         <v>151</v>
@@ -18820,7 +18817,7 @@
         <v>235</v>
       </c>
       <c r="N136" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O136" s="18" t="s">
         <v>270</v>
@@ -18840,7 +18837,7 @@
         <v>298</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>299</v>
@@ -18875,7 +18872,7 @@
         <v>298</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>300</v>
@@ -18899,7 +18896,7 @@
         <v>297</v>
       </c>
       <c r="R138" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -18910,7 +18907,7 @@
         <v>298</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D139" s="18" t="s">
         <v>302</v>
@@ -18945,7 +18942,7 @@
         <v>298</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>304</v>
@@ -18980,7 +18977,7 @@
         <v>298</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>306</v>
@@ -19015,7 +19012,7 @@
         <v>298</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>308</v>
@@ -19050,7 +19047,7 @@
         <v>298</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D143" s="18" t="s">
         <v>310</v>
@@ -19085,13 +19082,13 @@
         <v>298</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>312</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F144" s="20">
         <v>416</v>
@@ -19120,7 +19117,7 @@
         <v>298</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>313</v>
@@ -19155,7 +19152,7 @@
         <v>298</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>315</v>
@@ -19190,7 +19187,7 @@
         <v>298</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>317</v>
@@ -19225,7 +19222,7 @@
         <v>298</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>319</v>
@@ -19260,7 +19257,7 @@
         <v>298</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>320</v>
@@ -19295,7 +19292,7 @@
         <v>298</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>322</v>
@@ -19330,7 +19327,7 @@
         <v>298</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>323</v>
